--- a/内部設計書/内部設計書_2_1_試験.xlsx
+++ b/内部設計書/内部設計書_2_1_試験.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B0DECC-DB90-49DB-A538-A9D98356EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="0" windowWidth="17304" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="0" windowWidth="17310" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -460,10 +454,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>test画面のFormをインスタンス化してModelに追加する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザーの解答</t>
     <rPh sb="5" eb="7">
       <t>カイトウ</t>
@@ -471,9 +461,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>List＜Form.ユーザーの解答＞</t>
-    <rPh sb="15" eb="17">
+    <t>List＜TestForm.ユーザーの解答＞</t>
+    <rPh sb="19" eb="21">
       <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答用のFormをインスタンス化してModelに追加する。</t>
+    <rPh sb="0" eb="3">
+      <t>カイトウヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -481,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1140,6 +1137,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1170,6 +1168,17 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,23 +1278,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1623,128 +1620,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="6"/>
-    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="6"/>
+    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="48" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="49" t="s">
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="50" t="s">
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="51" t="s">
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="38"/>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
-      <c r="CG1" s="38"/>
-      <c r="CH1" s="38"/>
-      <c r="CI1" s="38"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="48"/>
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2686,104 +2683,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="41" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="42" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="43">
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="53">
         <v>44692</v>
       </c>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="44" t="s">
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="44"/>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45"/>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="45"/>
-      <c r="CI2" s="45"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3813,100 +3810,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="32" t="s">
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="33"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="33"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="33"/>
+      <c r="CD4" s="33"/>
+      <c r="CE4" s="33"/>
+      <c r="CF4" s="33"/>
+      <c r="CG4" s="33"/>
+      <c r="CH4" s="33"/>
+      <c r="CI4" s="33"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4848,100 +4845,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="52">
+      <c r="B5" s="62">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="68" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68" t="s">
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="69" t="s">
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="69"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="69"/>
-      <c r="BI5" s="69"/>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="69"/>
-      <c r="BM5" s="69"/>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="69"/>
-      <c r="BX5" s="69"/>
-      <c r="BY5" s="69"/>
-      <c r="BZ5" s="69"/>
-      <c r="CA5" s="69"/>
-      <c r="CB5" s="69"/>
-      <c r="CC5" s="69"/>
-      <c r="CD5" s="69"/>
-      <c r="CE5" s="69"/>
-      <c r="CF5" s="69"/>
-      <c r="CG5" s="69"/>
-      <c r="CH5" s="69"/>
-      <c r="CI5" s="69"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="79"/>
+      <c r="BP5" s="79"/>
+      <c r="BQ5" s="79"/>
+      <c r="BR5" s="79"/>
+      <c r="BS5" s="79"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="79"/>
+      <c r="CD5" s="79"/>
+      <c r="CE5" s="79"/>
+      <c r="CF5" s="79"/>
+      <c r="CG5" s="79"/>
+      <c r="CH5" s="79"/>
+      <c r="CI5" s="79"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5970,201 +5967,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="57" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="57" t="s">
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="58"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="58"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="32" t="s">
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="32"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="32"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="32"/>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="32"/>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="32"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="33"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="33"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="33"/>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="33"/>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="52">
-        <v>1</v>
+      <c r="B8" s="62">
+        <v>2</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="53" t="s">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="60" t="s">
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="56" t="s">
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
-      <c r="BP8" s="56"/>
-      <c r="BQ8" s="56"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="56"/>
-      <c r="BT8" s="56"/>
-      <c r="BU8" s="56"/>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="56"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="56"/>
-      <c r="CA8" s="56"/>
-      <c r="CB8" s="56"/>
-      <c r="CC8" s="56"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="56"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="56"/>
-      <c r="CH8" s="56"/>
-      <c r="CI8" s="56"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="66"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="66"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="66"/>
+      <c r="BN8" s="66"/>
+      <c r="BO8" s="66"/>
+      <c r="BP8" s="66"/>
+      <c r="BQ8" s="66"/>
+      <c r="BR8" s="66"/>
+      <c r="BS8" s="66"/>
+      <c r="BT8" s="66"/>
+      <c r="BU8" s="66"/>
+      <c r="BV8" s="66"/>
+      <c r="BW8" s="66"/>
+      <c r="BX8" s="66"/>
+      <c r="BY8" s="66"/>
+      <c r="BZ8" s="66"/>
+      <c r="CA8" s="66"/>
+      <c r="CB8" s="66"/>
+      <c r="CC8" s="66"/>
+      <c r="CD8" s="66"/>
+      <c r="CE8" s="66"/>
+      <c r="CF8" s="66"/>
+      <c r="CG8" s="66"/>
+      <c r="CH8" s="66"/>
+      <c r="CI8" s="66"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10192,65 +10189,65 @@
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="29"/>
-      <c r="BG12" s="29"/>
-      <c r="BH12" s="29"/>
-      <c r="BI12" s="29"/>
-      <c r="BJ12" s="29"/>
-      <c r="BK12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="30"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="31"/>
       <c r="BL12" s="13"/>
       <c r="BM12" s="13"/>
       <c r="BN12" s="13"/>
@@ -11220,65 +11217,65 @@
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="72"/>
-      <c r="BA13" s="72"/>
-      <c r="BB13" s="72"/>
-      <c r="BC13" s="72"/>
-      <c r="BD13" s="72"/>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="72"/>
-      <c r="BI13" s="72"/>
-      <c r="BJ13" s="72"/>
-      <c r="BK13" s="73"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="40"/>
+      <c r="BI13" s="40"/>
+      <c r="BJ13" s="40"/>
+      <c r="BK13" s="41"/>
       <c r="BL13" s="13"/>
       <c r="BM13" s="13"/>
       <c r="BN13" s="13"/>
@@ -12248,63 +12245,63 @@
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="75"/>
-      <c r="BA14" s="75"/>
-      <c r="BB14" s="75"/>
-      <c r="BC14" s="75"/>
-      <c r="BD14" s="75"/>
-      <c r="BE14" s="75"/>
-      <c r="BF14" s="75"/>
-      <c r="BG14" s="75"/>
-      <c r="BH14" s="75"/>
-      <c r="BI14" s="75"/>
-      <c r="BJ14" s="75"/>
-      <c r="BK14" s="76"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="44"/>
       <c r="BL14" s="13"/>
       <c r="BM14" s="13"/>
       <c r="BN14" s="13"/>
@@ -13274,63 +13271,63 @@
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="78"/>
-      <c r="BB15" s="78"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="78"/>
-      <c r="BE15" s="78"/>
-      <c r="BF15" s="78"/>
-      <c r="BG15" s="78"/>
-      <c r="BH15" s="78"/>
-      <c r="BI15" s="78"/>
-      <c r="BJ15" s="78"/>
-      <c r="BK15" s="79"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="47"/>
       <c r="BL15" s="13"/>
       <c r="BM15" s="13"/>
       <c r="BN15" s="13"/>
@@ -14300,63 +14297,63 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="80"/>
-      <c r="AQ16" s="80"/>
-      <c r="AR16" s="80"/>
-      <c r="AS16" s="80"/>
-      <c r="AT16" s="80"/>
-      <c r="AU16" s="80"/>
-      <c r="AV16" s="80"/>
-      <c r="AW16" s="80"/>
-      <c r="AX16" s="80"/>
-      <c r="AY16" s="80"/>
-      <c r="AZ16" s="80"/>
-      <c r="BA16" s="80"/>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="80"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="80"/>
-      <c r="BH16" s="80"/>
-      <c r="BI16" s="80"/>
-      <c r="BJ16" s="80"/>
-      <c r="BK16" s="80"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
       <c r="BL16" s="13"/>
       <c r="BM16" s="13"/>
       <c r="BN16" s="13"/>
@@ -15331,7 +15328,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="1"/>
       <c r="I17" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -20458,201 +20455,201 @@
       <c r="AMJ21" s="1"/>
     </row>
     <row r="22" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="31" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="57" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="57" t="s">
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="32" t="s">
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="32"/>
-      <c r="AW22" s="32"/>
-      <c r="AX22" s="32"/>
-      <c r="AY22" s="32"/>
-      <c r="AZ22" s="32"/>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="32"/>
-      <c r="BE22" s="32"/>
-      <c r="BF22" s="32"/>
-      <c r="BG22" s="32"/>
-      <c r="BH22" s="32"/>
-      <c r="BI22" s="32"/>
-      <c r="BJ22" s="32"/>
-      <c r="BK22" s="32"/>
-      <c r="BL22" s="32"/>
-      <c r="BM22" s="32"/>
-      <c r="BN22" s="32"/>
-      <c r="BO22" s="32"/>
-      <c r="BP22" s="32"/>
-      <c r="BQ22" s="32"/>
-      <c r="BR22" s="32"/>
-      <c r="BS22" s="32"/>
-      <c r="BT22" s="32"/>
-      <c r="BU22" s="32"/>
-      <c r="BV22" s="32"/>
-      <c r="BW22" s="32"/>
-      <c r="BX22" s="32"/>
-      <c r="BY22" s="32"/>
-      <c r="BZ22" s="32"/>
-      <c r="CA22" s="32"/>
-      <c r="CB22" s="32"/>
-      <c r="CC22" s="32"/>
-      <c r="CD22" s="32"/>
-      <c r="CE22" s="32"/>
-      <c r="CF22" s="32"/>
-      <c r="CG22" s="32"/>
-      <c r="CH22" s="32"/>
-      <c r="CI22" s="32"/>
+      <c r="AT22" s="33"/>
+      <c r="AU22" s="33"/>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="33"/>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="33"/>
+      <c r="BB22" s="33"/>
+      <c r="BC22" s="33"/>
+      <c r="BD22" s="33"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="33"/>
+      <c r="BG22" s="33"/>
+      <c r="BH22" s="33"/>
+      <c r="BI22" s="33"/>
+      <c r="BJ22" s="33"/>
+      <c r="BK22" s="33"/>
+      <c r="BL22" s="33"/>
+      <c r="BM22" s="33"/>
+      <c r="BN22" s="33"/>
+      <c r="BO22" s="33"/>
+      <c r="BP22" s="33"/>
+      <c r="BQ22" s="33"/>
+      <c r="BR22" s="33"/>
+      <c r="BS22" s="33"/>
+      <c r="BT22" s="33"/>
+      <c r="BU22" s="33"/>
+      <c r="BV22" s="33"/>
+      <c r="BW22" s="33"/>
+      <c r="BX22" s="33"/>
+      <c r="BY22" s="33"/>
+      <c r="BZ22" s="33"/>
+      <c r="CA22" s="33"/>
+      <c r="CB22" s="33"/>
+      <c r="CC22" s="33"/>
+      <c r="CD22" s="33"/>
+      <c r="CE22" s="33"/>
+      <c r="CF22" s="33"/>
+      <c r="CG22" s="33"/>
+      <c r="CH22" s="33"/>
+      <c r="CI22" s="33"/>
     </row>
     <row r="23" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="52">
+      <c r="B23" s="62">
         <v>2</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="62" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="28" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="70" t="s">
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="63"/>
-      <c r="AN23" s="63"/>
-      <c r="AO23" s="63"/>
-      <c r="AP23" s="63"/>
-      <c r="AQ23" s="63"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="56" t="s">
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="56"/>
-      <c r="BD23" s="56"/>
-      <c r="BE23" s="56"/>
-      <c r="BF23" s="56"/>
-      <c r="BG23" s="56"/>
-      <c r="BH23" s="56"/>
-      <c r="BI23" s="56"/>
-      <c r="BJ23" s="56"/>
-      <c r="BK23" s="56"/>
-      <c r="BL23" s="56"/>
-      <c r="BM23" s="56"/>
-      <c r="BN23" s="56"/>
-      <c r="BO23" s="56"/>
-      <c r="BP23" s="56"/>
-      <c r="BQ23" s="56"/>
-      <c r="BR23" s="56"/>
-      <c r="BS23" s="56"/>
-      <c r="BT23" s="56"/>
-      <c r="BU23" s="56"/>
-      <c r="BV23" s="56"/>
-      <c r="BW23" s="56"/>
-      <c r="BX23" s="56"/>
-      <c r="BY23" s="56"/>
-      <c r="BZ23" s="56"/>
-      <c r="CA23" s="56"/>
-      <c r="CB23" s="56"/>
-      <c r="CC23" s="56"/>
-      <c r="CD23" s="56"/>
-      <c r="CE23" s="56"/>
-      <c r="CF23" s="56"/>
-      <c r="CG23" s="56"/>
-      <c r="CH23" s="56"/>
-      <c r="CI23" s="56"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66"/>
+      <c r="BA23" s="66"/>
+      <c r="BB23" s="66"/>
+      <c r="BC23" s="66"/>
+      <c r="BD23" s="66"/>
+      <c r="BE23" s="66"/>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="66"/>
+      <c r="BH23" s="66"/>
+      <c r="BI23" s="66"/>
+      <c r="BJ23" s="66"/>
+      <c r="BK23" s="66"/>
+      <c r="BL23" s="66"/>
+      <c r="BM23" s="66"/>
+      <c r="BN23" s="66"/>
+      <c r="BO23" s="66"/>
+      <c r="BP23" s="66"/>
+      <c r="BQ23" s="66"/>
+      <c r="BR23" s="66"/>
+      <c r="BS23" s="66"/>
+      <c r="BT23" s="66"/>
+      <c r="BU23" s="66"/>
+      <c r="BV23" s="66"/>
+      <c r="BW23" s="66"/>
+      <c r="BX23" s="66"/>
+      <c r="BY23" s="66"/>
+      <c r="BZ23" s="66"/>
+      <c r="CA23" s="66"/>
+      <c r="CB23" s="66"/>
+      <c r="CC23" s="66"/>
+      <c r="CD23" s="66"/>
+      <c r="CE23" s="66"/>
+      <c r="CF23" s="66"/>
+      <c r="CG23" s="66"/>
+      <c r="CH23" s="66"/>
+      <c r="CI23" s="66"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
       <c r="CL23" s="1"/>
@@ -24680,69 +24677,69 @@
       <c r="D27" s="24"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36" t="s">
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="33" t="s">
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="29"/>
-      <c r="AV27" s="29"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="29"/>
-      <c r="BE27" s="29"/>
-      <c r="BF27" s="29"/>
-      <c r="BG27" s="29"/>
-      <c r="BH27" s="29"/>
-      <c r="BI27" s="29"/>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
+      <c r="AU27" s="30"/>
+      <c r="AV27" s="30"/>
+      <c r="AW27" s="30"/>
+      <c r="AX27" s="30"/>
+      <c r="AY27" s="30"/>
+      <c r="AZ27" s="30"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="30"/>
+      <c r="BC27" s="30"/>
+      <c r="BD27" s="30"/>
+      <c r="BE27" s="30"/>
+      <c r="BF27" s="30"/>
+      <c r="BG27" s="30"/>
+      <c r="BH27" s="30"/>
+      <c r="BI27" s="30"/>
+      <c r="BJ27" s="30"/>
+      <c r="BK27" s="31"/>
       <c r="BL27" s="24"/>
       <c r="BM27" s="24"/>
       <c r="BN27" s="24"/>
@@ -25712,69 +25709,69 @@
       <c r="D28" s="24"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>1</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="28" t="s">
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="29"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="29"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
-      <c r="BB28" s="29"/>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="29"/>
-      <c r="BE28" s="29"/>
-      <c r="BF28" s="29"/>
-      <c r="BG28" s="29"/>
-      <c r="BH28" s="29"/>
-      <c r="BI28" s="29"/>
-      <c r="BJ28" s="29"/>
-      <c r="BK28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="30"/>
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="30"/>
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="30"/>
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="31"/>
       <c r="BL28" s="24"/>
       <c r="BM28" s="24"/>
       <c r="BN28" s="24"/>
@@ -31872,201 +31869,201 @@
       <c r="AMJ33" s="1"/>
     </row>
     <row r="34" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="31" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="57" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="57" t="s">
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="32" t="s">
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
+      <c r="AL34" s="68"/>
+      <c r="AM34" s="68"/>
+      <c r="AN34" s="68"/>
+      <c r="AO34" s="68"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="69"/>
+      <c r="AS34" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="32"/>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
-      <c r="BA34" s="32"/>
-      <c r="BB34" s="32"/>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="32"/>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
-      <c r="BI34" s="32"/>
-      <c r="BJ34" s="32"/>
-      <c r="BK34" s="32"/>
-      <c r="BL34" s="32"/>
-      <c r="BM34" s="32"/>
-      <c r="BN34" s="32"/>
-      <c r="BO34" s="32"/>
-      <c r="BP34" s="32"/>
-      <c r="BQ34" s="32"/>
-      <c r="BR34" s="32"/>
-      <c r="BS34" s="32"/>
-      <c r="BT34" s="32"/>
-      <c r="BU34" s="32"/>
-      <c r="BV34" s="32"/>
-      <c r="BW34" s="32"/>
-      <c r="BX34" s="32"/>
-      <c r="BY34" s="32"/>
-      <c r="BZ34" s="32"/>
-      <c r="CA34" s="32"/>
-      <c r="CB34" s="32"/>
-      <c r="CC34" s="32"/>
-      <c r="CD34" s="32"/>
-      <c r="CE34" s="32"/>
-      <c r="CF34" s="32"/>
-      <c r="CG34" s="32"/>
-      <c r="CH34" s="32"/>
-      <c r="CI34" s="32"/>
+      <c r="AT34" s="33"/>
+      <c r="AU34" s="33"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="33"/>
+      <c r="AZ34" s="33"/>
+      <c r="BA34" s="33"/>
+      <c r="BB34" s="33"/>
+      <c r="BC34" s="33"/>
+      <c r="BD34" s="33"/>
+      <c r="BE34" s="33"/>
+      <c r="BF34" s="33"/>
+      <c r="BG34" s="33"/>
+      <c r="BH34" s="33"/>
+      <c r="BI34" s="33"/>
+      <c r="BJ34" s="33"/>
+      <c r="BK34" s="33"/>
+      <c r="BL34" s="33"/>
+      <c r="BM34" s="33"/>
+      <c r="BN34" s="33"/>
+      <c r="BO34" s="33"/>
+      <c r="BP34" s="33"/>
+      <c r="BQ34" s="33"/>
+      <c r="BR34" s="33"/>
+      <c r="BS34" s="33"/>
+      <c r="BT34" s="33"/>
+      <c r="BU34" s="33"/>
+      <c r="BV34" s="33"/>
+      <c r="BW34" s="33"/>
+      <c r="BX34" s="33"/>
+      <c r="BY34" s="33"/>
+      <c r="BZ34" s="33"/>
+      <c r="CA34" s="33"/>
+      <c r="CB34" s="33"/>
+      <c r="CC34" s="33"/>
+      <c r="CD34" s="33"/>
+      <c r="CE34" s="33"/>
+      <c r="CF34" s="33"/>
+      <c r="CG34" s="33"/>
+      <c r="CH34" s="33"/>
+      <c r="CI34" s="33"/>
     </row>
     <row r="35" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="52">
+      <c r="B35" s="62">
         <v>3</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="62" t="s">
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="28" t="s">
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="28" t="s">
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="63"/>
-      <c r="AN35" s="63"/>
-      <c r="AO35" s="63"/>
-      <c r="AP35" s="63"/>
-      <c r="AQ35" s="63"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="56" t="s">
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="74"/>
+      <c r="AS35" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
-      <c r="BP35" s="56"/>
-      <c r="BQ35" s="56"/>
-      <c r="BR35" s="56"/>
-      <c r="BS35" s="56"/>
-      <c r="BT35" s="56"/>
-      <c r="BU35" s="56"/>
-      <c r="BV35" s="56"/>
-      <c r="BW35" s="56"/>
-      <c r="BX35" s="56"/>
-      <c r="BY35" s="56"/>
-      <c r="BZ35" s="56"/>
-      <c r="CA35" s="56"/>
-      <c r="CB35" s="56"/>
-      <c r="CC35" s="56"/>
-      <c r="CD35" s="56"/>
-      <c r="CE35" s="56"/>
-      <c r="CF35" s="56"/>
-      <c r="CG35" s="56"/>
-      <c r="CH35" s="56"/>
-      <c r="CI35" s="56"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="66"/>
+      <c r="AV35" s="66"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="66"/>
+      <c r="BA35" s="66"/>
+      <c r="BB35" s="66"/>
+      <c r="BC35" s="66"/>
+      <c r="BD35" s="66"/>
+      <c r="BE35" s="66"/>
+      <c r="BF35" s="66"/>
+      <c r="BG35" s="66"/>
+      <c r="BH35" s="66"/>
+      <c r="BI35" s="66"/>
+      <c r="BJ35" s="66"/>
+      <c r="BK35" s="66"/>
+      <c r="BL35" s="66"/>
+      <c r="BM35" s="66"/>
+      <c r="BN35" s="66"/>
+      <c r="BO35" s="66"/>
+      <c r="BP35" s="66"/>
+      <c r="BQ35" s="66"/>
+      <c r="BR35" s="66"/>
+      <c r="BS35" s="66"/>
+      <c r="BT35" s="66"/>
+      <c r="BU35" s="66"/>
+      <c r="BV35" s="66"/>
+      <c r="BW35" s="66"/>
+      <c r="BX35" s="66"/>
+      <c r="BY35" s="66"/>
+      <c r="BZ35" s="66"/>
+      <c r="CA35" s="66"/>
+      <c r="CB35" s="66"/>
+      <c r="CC35" s="66"/>
+      <c r="CD35" s="66"/>
+      <c r="CE35" s="66"/>
+      <c r="CF35" s="66"/>
+      <c r="CG35" s="66"/>
+      <c r="CH35" s="66"/>
+      <c r="CI35" s="66"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
@@ -37122,71 +37119,71 @@
       <c r="D40" s="24"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65" t="s">
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="36" t="s">
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="36" t="s">
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="76"/>
+      <c r="AL40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
-      <c r="BA40" s="34"/>
-      <c r="BB40" s="34"/>
-      <c r="BC40" s="34"/>
-      <c r="BD40" s="34"/>
-      <c r="BE40" s="34"/>
-      <c r="BF40" s="34"/>
-      <c r="BG40" s="34"/>
-      <c r="BH40" s="34"/>
-      <c r="BI40" s="34"/>
-      <c r="BJ40" s="34"/>
-      <c r="BK40" s="35"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+      <c r="AU40" s="38"/>
+      <c r="AV40" s="38"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="35"/>
+      <c r="AY40" s="35"/>
+      <c r="AZ40" s="35"/>
+      <c r="BA40" s="35"/>
+      <c r="BB40" s="35"/>
+      <c r="BC40" s="35"/>
+      <c r="BD40" s="35"/>
+      <c r="BE40" s="35"/>
+      <c r="BF40" s="35"/>
+      <c r="BG40" s="35"/>
+      <c r="BH40" s="35"/>
+      <c r="BI40" s="35"/>
+      <c r="BJ40" s="35"/>
+      <c r="BK40" s="36"/>
       <c r="BL40" s="24"/>
       <c r="BM40" s="24"/>
       <c r="BN40" s="24"/>
@@ -38156,71 +38153,71 @@
       <c r="D41" s="24"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62" t="s">
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="28" t="s">
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
-      <c r="AK41" s="64"/>
-      <c r="AL41" s="28" t="s">
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="74"/>
+      <c r="AL41" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AM41" s="63"/>
-      <c r="AN41" s="63"/>
-      <c r="AO41" s="63"/>
-      <c r="AP41" s="63"/>
-      <c r="AQ41" s="63"/>
-      <c r="AR41" s="63"/>
-      <c r="AS41" s="63"/>
-      <c r="AT41" s="63"/>
-      <c r="AU41" s="63"/>
-      <c r="AV41" s="63"/>
-      <c r="AW41" s="29"/>
-      <c r="AX41" s="29"/>
-      <c r="AY41" s="29"/>
-      <c r="AZ41" s="29"/>
-      <c r="BA41" s="29"/>
-      <c r="BB41" s="29"/>
-      <c r="BC41" s="29"/>
-      <c r="BD41" s="29"/>
-      <c r="BE41" s="29"/>
-      <c r="BF41" s="29"/>
-      <c r="BG41" s="29"/>
-      <c r="BH41" s="29"/>
-      <c r="BI41" s="29"/>
-      <c r="BJ41" s="29"/>
-      <c r="BK41" s="30"/>
+      <c r="AM41" s="73"/>
+      <c r="AN41" s="73"/>
+      <c r="AO41" s="73"/>
+      <c r="AP41" s="73"/>
+      <c r="AQ41" s="73"/>
+      <c r="AR41" s="73"/>
+      <c r="AS41" s="73"/>
+      <c r="AT41" s="73"/>
+      <c r="AU41" s="73"/>
+      <c r="AV41" s="73"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="30"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="31"/>
       <c r="BL41" s="24"/>
       <c r="BM41" s="24"/>
       <c r="BN41" s="24"/>

--- a/内部設計書/内部設計書_2_1_試験.xlsx
+++ b/内部設計書/内部設計書_2_1_試験.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B0DECC-DB90-49DB-A538-A9D98356EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="0" windowWidth="17310" windowHeight="8970"/>
+    <workbookView xWindow="5652" yWindow="0" windowWidth="17304" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -28,7 +34,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -454,6 +460,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>test画面のFormをインスタンス化してModelに追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ユーザーの解答</t>
     <rPh sb="5" eb="7">
       <t>カイトウ</t>
@@ -461,16 +471,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>List＜TestForm.ユーザーの解答＞</t>
-    <rPh sb="19" eb="21">
+    <t>List＜Form.ユーザーの解答＞</t>
+    <rPh sb="15" eb="17">
       <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解答用のFormをインスタンス化してModelに追加する。</t>
-    <rPh sb="0" eb="3">
-      <t>カイトウヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -478,7 +481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1137,7 +1140,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1168,17 +1170,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,11 +1269,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1620,128 +1623,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="6"/>
-    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="6"/>
+    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="58" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="59" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="60" t="s">
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="60"/>
-      <c r="BU1" s="60"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="61" t="s">
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61"/>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="48"/>
-      <c r="CC1" s="48"/>
-      <c r="CD1" s="48"/>
-      <c r="CE1" s="48"/>
-      <c r="CF1" s="48"/>
-      <c r="CG1" s="48"/>
-      <c r="CH1" s="48"/>
-      <c r="CI1" s="48"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2683,104 +2686,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="51" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="52" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="53">
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="43">
         <v>44692</v>
       </c>
-      <c r="BQ2" s="53"/>
-      <c r="BR2" s="53"/>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="53"/>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="54" t="s">
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="55"/>
-      <c r="CC2" s="55"/>
-      <c r="CD2" s="55"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="55"/>
-      <c r="CG2" s="55"/>
-      <c r="CH2" s="55"/>
-      <c r="CI2" s="55"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="45"/>
+      <c r="CD2" s="45"/>
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="45"/>
+      <c r="CI2" s="45"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3810,100 +3813,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="33" t="s">
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="33"/>
-      <c r="BH4" s="33"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="33"/>
-      <c r="BP4" s="33"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="33"/>
-      <c r="BS4" s="33"/>
-      <c r="BT4" s="33"/>
-      <c r="BU4" s="33"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="33"/>
-      <c r="CA4" s="33"/>
-      <c r="CB4" s="33"/>
-      <c r="CC4" s="33"/>
-      <c r="CD4" s="33"/>
-      <c r="CE4" s="33"/>
-      <c r="CF4" s="33"/>
-      <c r="CG4" s="33"/>
-      <c r="CH4" s="33"/>
-      <c r="CI4" s="33"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4845,100 +4848,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="62">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="79" t="s">
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="79"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="79"/>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="79"/>
-      <c r="BK5" s="79"/>
-      <c r="BL5" s="79"/>
-      <c r="BM5" s="79"/>
-      <c r="BN5" s="79"/>
-      <c r="BO5" s="79"/>
-      <c r="BP5" s="79"/>
-      <c r="BQ5" s="79"/>
-      <c r="BR5" s="79"/>
-      <c r="BS5" s="79"/>
-      <c r="BT5" s="79"/>
-      <c r="BU5" s="79"/>
-      <c r="BV5" s="79"/>
-      <c r="BW5" s="79"/>
-      <c r="BX5" s="79"/>
-      <c r="BY5" s="79"/>
-      <c r="BZ5" s="79"/>
-      <c r="CA5" s="79"/>
-      <c r="CB5" s="79"/>
-      <c r="CC5" s="79"/>
-      <c r="CD5" s="79"/>
-      <c r="CE5" s="79"/>
-      <c r="CF5" s="79"/>
-      <c r="CG5" s="79"/>
-      <c r="CH5" s="79"/>
-      <c r="CI5" s="79"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+      <c r="BF5" s="69"/>
+      <c r="BG5" s="69"/>
+      <c r="BH5" s="69"/>
+      <c r="BI5" s="69"/>
+      <c r="BJ5" s="69"/>
+      <c r="BK5" s="69"/>
+      <c r="BL5" s="69"/>
+      <c r="BM5" s="69"/>
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="69"/>
+      <c r="BW5" s="69"/>
+      <c r="BX5" s="69"/>
+      <c r="BY5" s="69"/>
+      <c r="BZ5" s="69"/>
+      <c r="CA5" s="69"/>
+      <c r="CB5" s="69"/>
+      <c r="CC5" s="69"/>
+      <c r="CD5" s="69"/>
+      <c r="CE5" s="69"/>
+      <c r="CF5" s="69"/>
+      <c r="CG5" s="69"/>
+      <c r="CH5" s="69"/>
+      <c r="CI5" s="69"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5967,201 +5970,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="67" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="67" t="s">
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="33" t="s">
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="33"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="33"/>
-      <c r="BT7" s="33"/>
-      <c r="BU7" s="33"/>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CA7" s="33"/>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="33"/>
-      <c r="CD7" s="33"/>
-      <c r="CE7" s="33"/>
-      <c r="CF7" s="33"/>
-      <c r="CG7" s="33"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="33"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="32"/>
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="32"/>
+      <c r="BY7" s="32"/>
+      <c r="BZ7" s="32"/>
+      <c r="CA7" s="32"/>
+      <c r="CB7" s="32"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="32"/>
+      <c r="CE7" s="32"/>
+      <c r="CF7" s="32"/>
+      <c r="CG7" s="32"/>
+      <c r="CH7" s="32"/>
+      <c r="CI7" s="32"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="62">
-        <v>2</v>
+      <c r="B8" s="52">
+        <v>1</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="63" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="70" t="s">
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="66" t="s">
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
-      <c r="BA8" s="66"/>
-      <c r="BB8" s="66"/>
-      <c r="BC8" s="66"/>
-      <c r="BD8" s="66"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="66"/>
-      <c r="BJ8" s="66"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="66"/>
-      <c r="BN8" s="66"/>
-      <c r="BO8" s="66"/>
-      <c r="BP8" s="66"/>
-      <c r="BQ8" s="66"/>
-      <c r="BR8" s="66"/>
-      <c r="BS8" s="66"/>
-      <c r="BT8" s="66"/>
-      <c r="BU8" s="66"/>
-      <c r="BV8" s="66"/>
-      <c r="BW8" s="66"/>
-      <c r="BX8" s="66"/>
-      <c r="BY8" s="66"/>
-      <c r="BZ8" s="66"/>
-      <c r="CA8" s="66"/>
-      <c r="CB8" s="66"/>
-      <c r="CC8" s="66"/>
-      <c r="CD8" s="66"/>
-      <c r="CE8" s="66"/>
-      <c r="CF8" s="66"/>
-      <c r="CG8" s="66"/>
-      <c r="CH8" s="66"/>
-      <c r="CI8" s="66"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="56"/>
+      <c r="BS8" s="56"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="56"/>
+      <c r="BZ8" s="56"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="56"/>
+      <c r="CG8" s="56"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10189,65 +10192,65 @@
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="30"/>
-      <c r="BI12" s="30"/>
-      <c r="BJ12" s="30"/>
-      <c r="BK12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
+      <c r="BK12" s="30"/>
       <c r="BL12" s="13"/>
       <c r="BM12" s="13"/>
       <c r="BN12" s="13"/>
@@ -11217,65 +11220,65 @@
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="40"/>
-      <c r="BI13" s="40"/>
-      <c r="BJ13" s="40"/>
-      <c r="BK13" s="41"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
+      <c r="BD13" s="72"/>
+      <c r="BE13" s="72"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="72"/>
+      <c r="BH13" s="72"/>
+      <c r="BI13" s="72"/>
+      <c r="BJ13" s="72"/>
+      <c r="BK13" s="73"/>
       <c r="BL13" s="13"/>
       <c r="BM13" s="13"/>
       <c r="BN13" s="13"/>
@@ -12245,63 +12248,63 @@
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="43"/>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
-      <c r="BB14" s="43"/>
-      <c r="BC14" s="43"/>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="43"/>
-      <c r="BF14" s="43"/>
-      <c r="BG14" s="43"/>
-      <c r="BH14" s="43"/>
-      <c r="BI14" s="43"/>
-      <c r="BJ14" s="43"/>
-      <c r="BK14" s="44"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="75"/>
+      <c r="BH14" s="75"/>
+      <c r="BI14" s="75"/>
+      <c r="BJ14" s="75"/>
+      <c r="BK14" s="76"/>
       <c r="BL14" s="13"/>
       <c r="BM14" s="13"/>
       <c r="BN14" s="13"/>
@@ -13271,63 +13274,63 @@
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="46"/>
-      <c r="AT15" s="46"/>
-      <c r="AU15" s="46"/>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="46"/>
-      <c r="AX15" s="46"/>
-      <c r="AY15" s="46"/>
-      <c r="AZ15" s="46"/>
-      <c r="BA15" s="46"/>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="46"/>
-      <c r="BG15" s="46"/>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="46"/>
-      <c r="BJ15" s="46"/>
-      <c r="BK15" s="47"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+      <c r="BA15" s="78"/>
+      <c r="BB15" s="78"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="78"/>
+      <c r="BE15" s="78"/>
+      <c r="BF15" s="78"/>
+      <c r="BG15" s="78"/>
+      <c r="BH15" s="78"/>
+      <c r="BI15" s="78"/>
+      <c r="BJ15" s="78"/>
+      <c r="BK15" s="79"/>
       <c r="BL15" s="13"/>
       <c r="BM15" s="13"/>
       <c r="BN15" s="13"/>
@@ -14297,63 +14300,63 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="28"/>
-      <c r="BI16" s="28"/>
-      <c r="BJ16" s="28"/>
-      <c r="BK16" s="28"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="80"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="80"/>
+      <c r="AR16" s="80"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="80"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="80"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="80"/>
+      <c r="BG16" s="80"/>
+      <c r="BH16" s="80"/>
+      <c r="BI16" s="80"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
       <c r="BL16" s="13"/>
       <c r="BM16" s="13"/>
       <c r="BN16" s="13"/>
@@ -15328,7 +15331,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="1"/>
       <c r="I17" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -20455,201 +20458,201 @@
       <c r="AMJ21" s="1"/>
     </row>
     <row r="22" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="32" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="67" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="67" t="s">
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="33" t="s">
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="33"/>
-      <c r="AY22" s="33"/>
-      <c r="AZ22" s="33"/>
-      <c r="BA22" s="33"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="33"/>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="33"/>
-      <c r="BF22" s="33"/>
-      <c r="BG22" s="33"/>
-      <c r="BH22" s="33"/>
-      <c r="BI22" s="33"/>
-      <c r="BJ22" s="33"/>
-      <c r="BK22" s="33"/>
-      <c r="BL22" s="33"/>
-      <c r="BM22" s="33"/>
-      <c r="BN22" s="33"/>
-      <c r="BO22" s="33"/>
-      <c r="BP22" s="33"/>
-      <c r="BQ22" s="33"/>
-      <c r="BR22" s="33"/>
-      <c r="BS22" s="33"/>
-      <c r="BT22" s="33"/>
-      <c r="BU22" s="33"/>
-      <c r="BV22" s="33"/>
-      <c r="BW22" s="33"/>
-      <c r="BX22" s="33"/>
-      <c r="BY22" s="33"/>
-      <c r="BZ22" s="33"/>
-      <c r="CA22" s="33"/>
-      <c r="CB22" s="33"/>
-      <c r="CC22" s="33"/>
-      <c r="CD22" s="33"/>
-      <c r="CE22" s="33"/>
-      <c r="CF22" s="33"/>
-      <c r="CG22" s="33"/>
-      <c r="CH22" s="33"/>
-      <c r="CI22" s="33"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="32"/>
+      <c r="BU22" s="32"/>
+      <c r="BV22" s="32"/>
+      <c r="BW22" s="32"/>
+      <c r="BX22" s="32"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="32"/>
+      <c r="CA22" s="32"/>
+      <c r="CB22" s="32"/>
+      <c r="CC22" s="32"/>
+      <c r="CD22" s="32"/>
+      <c r="CE22" s="32"/>
+      <c r="CF22" s="32"/>
+      <c r="CG22" s="32"/>
+      <c r="CH22" s="32"/>
+      <c r="CI22" s="32"/>
     </row>
     <row r="23" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="62">
+      <c r="B23" s="52">
         <v>2</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="72" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="29" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="80" t="s">
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="74"/>
-      <c r="AS23" s="66" t="s">
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="66"/>
-      <c r="BC23" s="66"/>
-      <c r="BD23" s="66"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="66"/>
-      <c r="BG23" s="66"/>
-      <c r="BH23" s="66"/>
-      <c r="BI23" s="66"/>
-      <c r="BJ23" s="66"/>
-      <c r="BK23" s="66"/>
-      <c r="BL23" s="66"/>
-      <c r="BM23" s="66"/>
-      <c r="BN23" s="66"/>
-      <c r="BO23" s="66"/>
-      <c r="BP23" s="66"/>
-      <c r="BQ23" s="66"/>
-      <c r="BR23" s="66"/>
-      <c r="BS23" s="66"/>
-      <c r="BT23" s="66"/>
-      <c r="BU23" s="66"/>
-      <c r="BV23" s="66"/>
-      <c r="BW23" s="66"/>
-      <c r="BX23" s="66"/>
-      <c r="BY23" s="66"/>
-      <c r="BZ23" s="66"/>
-      <c r="CA23" s="66"/>
-      <c r="CB23" s="66"/>
-      <c r="CC23" s="66"/>
-      <c r="CD23" s="66"/>
-      <c r="CE23" s="66"/>
-      <c r="CF23" s="66"/>
-      <c r="CG23" s="66"/>
-      <c r="CH23" s="66"/>
-      <c r="CI23" s="66"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="56"/>
+      <c r="BD23" s="56"/>
+      <c r="BE23" s="56"/>
+      <c r="BF23" s="56"/>
+      <c r="BG23" s="56"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="56"/>
+      <c r="BK23" s="56"/>
+      <c r="BL23" s="56"/>
+      <c r="BM23" s="56"/>
+      <c r="BN23" s="56"/>
+      <c r="BO23" s="56"/>
+      <c r="BP23" s="56"/>
+      <c r="BQ23" s="56"/>
+      <c r="BR23" s="56"/>
+      <c r="BS23" s="56"/>
+      <c r="BT23" s="56"/>
+      <c r="BU23" s="56"/>
+      <c r="BV23" s="56"/>
+      <c r="BW23" s="56"/>
+      <c r="BX23" s="56"/>
+      <c r="BY23" s="56"/>
+      <c r="BZ23" s="56"/>
+      <c r="CA23" s="56"/>
+      <c r="CB23" s="56"/>
+      <c r="CC23" s="56"/>
+      <c r="CD23" s="56"/>
+      <c r="CE23" s="56"/>
+      <c r="CF23" s="56"/>
+      <c r="CG23" s="56"/>
+      <c r="CH23" s="56"/>
+      <c r="CI23" s="56"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
       <c r="CL23" s="1"/>
@@ -24677,69 +24680,69 @@
       <c r="D27" s="24"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37" t="s">
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="34" t="s">
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
-      <c r="AX27" s="30"/>
-      <c r="AY27" s="30"/>
-      <c r="AZ27" s="30"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="30"/>
-      <c r="BD27" s="30"/>
-      <c r="BE27" s="30"/>
-      <c r="BF27" s="30"/>
-      <c r="BG27" s="30"/>
-      <c r="BH27" s="30"/>
-      <c r="BI27" s="30"/>
-      <c r="BJ27" s="30"/>
-      <c r="BK27" s="31"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="29"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
+      <c r="BB27" s="29"/>
+      <c r="BC27" s="29"/>
+      <c r="BD27" s="29"/>
+      <c r="BE27" s="29"/>
+      <c r="BF27" s="29"/>
+      <c r="BG27" s="29"/>
+      <c r="BH27" s="29"/>
+      <c r="BI27" s="29"/>
+      <c r="BJ27" s="29"/>
+      <c r="BK27" s="30"/>
       <c r="BL27" s="24"/>
       <c r="BM27" s="24"/>
       <c r="BN27" s="24"/>
@@ -25709,69 +25712,69 @@
       <c r="D28" s="24"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <v>1</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="29" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="30"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="30"/>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
-      <c r="BJ28" s="30"/>
-      <c r="BK28" s="31"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="29"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="29"/>
+      <c r="BC28" s="29"/>
+      <c r="BD28" s="29"/>
+      <c r="BE28" s="29"/>
+      <c r="BF28" s="29"/>
+      <c r="BG28" s="29"/>
+      <c r="BH28" s="29"/>
+      <c r="BI28" s="29"/>
+      <c r="BJ28" s="29"/>
+      <c r="BK28" s="30"/>
       <c r="BL28" s="24"/>
       <c r="BM28" s="24"/>
       <c r="BN28" s="24"/>
@@ -31869,201 +31872,201 @@
       <c r="AMJ33" s="1"/>
     </row>
     <row r="34" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="32" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="67" t="s">
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="67" t="s">
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
-      <c r="AR34" s="69"/>
-      <c r="AS34" s="33" t="s">
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
-      <c r="BI34" s="33"/>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="33"/>
-      <c r="BL34" s="33"/>
-      <c r="BM34" s="33"/>
-      <c r="BN34" s="33"/>
-      <c r="BO34" s="33"/>
-      <c r="BP34" s="33"/>
-      <c r="BQ34" s="33"/>
-      <c r="BR34" s="33"/>
-      <c r="BS34" s="33"/>
-      <c r="BT34" s="33"/>
-      <c r="BU34" s="33"/>
-      <c r="BV34" s="33"/>
-      <c r="BW34" s="33"/>
-      <c r="BX34" s="33"/>
-      <c r="BY34" s="33"/>
-      <c r="BZ34" s="33"/>
-      <c r="CA34" s="33"/>
-      <c r="CB34" s="33"/>
-      <c r="CC34" s="33"/>
-      <c r="CD34" s="33"/>
-      <c r="CE34" s="33"/>
-      <c r="CF34" s="33"/>
-      <c r="CG34" s="33"/>
-      <c r="CH34" s="33"/>
-      <c r="CI34" s="33"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32"/>
+      <c r="AY34" s="32"/>
+      <c r="AZ34" s="32"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32"/>
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="32"/>
+      <c r="BF34" s="32"/>
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="32"/>
+      <c r="BK34" s="32"/>
+      <c r="BL34" s="32"/>
+      <c r="BM34" s="32"/>
+      <c r="BN34" s="32"/>
+      <c r="BO34" s="32"/>
+      <c r="BP34" s="32"/>
+      <c r="BQ34" s="32"/>
+      <c r="BR34" s="32"/>
+      <c r="BS34" s="32"/>
+      <c r="BT34" s="32"/>
+      <c r="BU34" s="32"/>
+      <c r="BV34" s="32"/>
+      <c r="BW34" s="32"/>
+      <c r="BX34" s="32"/>
+      <c r="BY34" s="32"/>
+      <c r="BZ34" s="32"/>
+      <c r="CA34" s="32"/>
+      <c r="CB34" s="32"/>
+      <c r="CC34" s="32"/>
+      <c r="CD34" s="32"/>
+      <c r="CE34" s="32"/>
+      <c r="CF34" s="32"/>
+      <c r="CG34" s="32"/>
+      <c r="CH34" s="32"/>
+      <c r="CI34" s="32"/>
     </row>
     <row r="35" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="62">
+      <c r="B35" s="52">
         <v>3</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="72" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="29" t="s">
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="29" t="s">
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="73"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="74"/>
-      <c r="AS35" s="66" t="s">
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="66"/>
-      <c r="BA35" s="66"/>
-      <c r="BB35" s="66"/>
-      <c r="BC35" s="66"/>
-      <c r="BD35" s="66"/>
-      <c r="BE35" s="66"/>
-      <c r="BF35" s="66"/>
-      <c r="BG35" s="66"/>
-      <c r="BH35" s="66"/>
-      <c r="BI35" s="66"/>
-      <c r="BJ35" s="66"/>
-      <c r="BK35" s="66"/>
-      <c r="BL35" s="66"/>
-      <c r="BM35" s="66"/>
-      <c r="BN35" s="66"/>
-      <c r="BO35" s="66"/>
-      <c r="BP35" s="66"/>
-      <c r="BQ35" s="66"/>
-      <c r="BR35" s="66"/>
-      <c r="BS35" s="66"/>
-      <c r="BT35" s="66"/>
-      <c r="BU35" s="66"/>
-      <c r="BV35" s="66"/>
-      <c r="BW35" s="66"/>
-      <c r="BX35" s="66"/>
-      <c r="BY35" s="66"/>
-      <c r="BZ35" s="66"/>
-      <c r="CA35" s="66"/>
-      <c r="CB35" s="66"/>
-      <c r="CC35" s="66"/>
-      <c r="CD35" s="66"/>
-      <c r="CE35" s="66"/>
-      <c r="CF35" s="66"/>
-      <c r="CG35" s="66"/>
-      <c r="CH35" s="66"/>
-      <c r="CI35" s="66"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+      <c r="BE35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
+      <c r="BP35" s="56"/>
+      <c r="BQ35" s="56"/>
+      <c r="BR35" s="56"/>
+      <c r="BS35" s="56"/>
+      <c r="BT35" s="56"/>
+      <c r="BU35" s="56"/>
+      <c r="BV35" s="56"/>
+      <c r="BW35" s="56"/>
+      <c r="BX35" s="56"/>
+      <c r="BY35" s="56"/>
+      <c r="BZ35" s="56"/>
+      <c r="CA35" s="56"/>
+      <c r="CB35" s="56"/>
+      <c r="CC35" s="56"/>
+      <c r="CD35" s="56"/>
+      <c r="CE35" s="56"/>
+      <c r="CF35" s="56"/>
+      <c r="CG35" s="56"/>
+      <c r="CH35" s="56"/>
+      <c r="CI35" s="56"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
@@ -37119,71 +37122,71 @@
       <c r="D40" s="24"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75" t="s">
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="37" t="s">
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="37" t="s">
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="38"/>
-      <c r="AR40" s="38"/>
-      <c r="AS40" s="38"/>
-      <c r="AT40" s="38"/>
-      <c r="AU40" s="38"/>
-      <c r="AV40" s="38"/>
-      <c r="AW40" s="35"/>
-      <c r="AX40" s="35"/>
-      <c r="AY40" s="35"/>
-      <c r="AZ40" s="35"/>
-      <c r="BA40" s="35"/>
-      <c r="BB40" s="35"/>
-      <c r="BC40" s="35"/>
-      <c r="BD40" s="35"/>
-      <c r="BE40" s="35"/>
-      <c r="BF40" s="35"/>
-      <c r="BG40" s="35"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
-      <c r="BK40" s="36"/>
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
+      <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="34"/>
+      <c r="AX40" s="34"/>
+      <c r="AY40" s="34"/>
+      <c r="AZ40" s="34"/>
+      <c r="BA40" s="34"/>
+      <c r="BB40" s="34"/>
+      <c r="BC40" s="34"/>
+      <c r="BD40" s="34"/>
+      <c r="BE40" s="34"/>
+      <c r="BF40" s="34"/>
+      <c r="BG40" s="34"/>
+      <c r="BH40" s="34"/>
+      <c r="BI40" s="34"/>
+      <c r="BJ40" s="34"/>
+      <c r="BK40" s="35"/>
       <c r="BL40" s="24"/>
       <c r="BM40" s="24"/>
       <c r="BN40" s="24"/>
@@ -38153,71 +38156,71 @@
       <c r="D41" s="24"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72" t="s">
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="29" t="s">
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="74"/>
-      <c r="AL41" s="29" t="s">
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="64"/>
+      <c r="AL41" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AM41" s="73"/>
-      <c r="AN41" s="73"/>
-      <c r="AO41" s="73"/>
-      <c r="AP41" s="73"/>
-      <c r="AQ41" s="73"/>
-      <c r="AR41" s="73"/>
-      <c r="AS41" s="73"/>
-      <c r="AT41" s="73"/>
-      <c r="AU41" s="73"/>
-      <c r="AV41" s="73"/>
-      <c r="AW41" s="30"/>
-      <c r="AX41" s="30"/>
-      <c r="AY41" s="30"/>
-      <c r="AZ41" s="30"/>
-      <c r="BA41" s="30"/>
-      <c r="BB41" s="30"/>
-      <c r="BC41" s="30"/>
-      <c r="BD41" s="30"/>
-      <c r="BE41" s="30"/>
-      <c r="BF41" s="30"/>
-      <c r="BG41" s="30"/>
-      <c r="BH41" s="30"/>
-      <c r="BI41" s="30"/>
-      <c r="BJ41" s="30"/>
-      <c r="BK41" s="31"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="63"/>
+      <c r="AO41" s="63"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="29"/>
+      <c r="AZ41" s="29"/>
+      <c r="BA41" s="29"/>
+      <c r="BB41" s="29"/>
+      <c r="BC41" s="29"/>
+      <c r="BD41" s="29"/>
+      <c r="BE41" s="29"/>
+      <c r="BF41" s="29"/>
+      <c r="BG41" s="29"/>
+      <c r="BH41" s="29"/>
+      <c r="BI41" s="29"/>
+      <c r="BJ41" s="29"/>
+      <c r="BK41" s="30"/>
       <c r="BL41" s="24"/>
       <c r="BM41" s="24"/>
       <c r="BN41" s="24"/>

--- a/内部設計書/内部設計書_2_1_試験.xlsx
+++ b/内部設計書/内部設計書_2_1_試験.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E39195-3CAC-4AEA-A945-FC3691C51BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="20424" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20430" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -218,10 +212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Answer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -273,13 +263,6 @@
   <si>
     <t>ユーザーの解答</t>
     <rPh sb="5" eb="7">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>List＜Form.ユーザーの解答＞</t>
-    <rPh sb="15" eb="17">
       <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -387,11 +370,22 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>List＜TestForm.ユーザーの解答＞</t>
+    <rPh sb="19" eb="21">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1095,27 +1089,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1125,22 +1098,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1149,21 +1113,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,20 +1166,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,6 +1203,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,13 +1247,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,26 +1265,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1613,128 +1607,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37:BK37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AU41" sqref="AU41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="6"/>
-    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="6"/>
+    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="60" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="61" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="62" t="s">
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62"/>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="63" t="s">
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="56"/>
+      <c r="BT1" s="56"/>
+      <c r="BU1" s="56"/>
+      <c r="BV1" s="56"/>
+      <c r="BW1" s="56"/>
+      <c r="BX1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2676,104 +2670,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="53" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="53"/>
-      <c r="BL2" s="54" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="55">
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="48"/>
+      <c r="BP2" s="49">
         <v>44692</v>
       </c>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="55"/>
-      <c r="BS2" s="55"/>
-      <c r="BT2" s="55"/>
-      <c r="BU2" s="55"/>
-      <c r="BV2" s="55"/>
-      <c r="BW2" s="55"/>
-      <c r="BX2" s="56" t="s">
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
+      <c r="CA2" s="50"/>
+      <c r="CB2" s="51"/>
+      <c r="CC2" s="51"/>
+      <c r="CD2" s="51"/>
+      <c r="CE2" s="51"/>
+      <c r="CF2" s="51"/>
+      <c r="CG2" s="51"/>
+      <c r="CH2" s="51"/>
+      <c r="CI2" s="51"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3803,100 +3797,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="32" t="s">
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4838,100 +4832,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="33">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="39" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39" t="s">
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="40" t="s">
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="40"/>
-      <c r="BK5" s="40"/>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="40"/>
-      <c r="BN5" s="40"/>
-      <c r="BO5" s="40"/>
-      <c r="BP5" s="40"/>
-      <c r="BQ5" s="40"/>
-      <c r="BR5" s="40"/>
-      <c r="BS5" s="40"/>
-      <c r="BT5" s="40"/>
-      <c r="BU5" s="40"/>
-      <c r="BV5" s="40"/>
-      <c r="BW5" s="40"/>
-      <c r="BX5" s="40"/>
-      <c r="BY5" s="40"/>
-      <c r="BZ5" s="40"/>
-      <c r="CA5" s="40"/>
-      <c r="CB5" s="40"/>
-      <c r="CC5" s="40"/>
-      <c r="CD5" s="40"/>
-      <c r="CE5" s="40"/>
-      <c r="CF5" s="40"/>
-      <c r="CG5" s="40"/>
-      <c r="CH5" s="40"/>
-      <c r="CI5" s="40"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="79"/>
+      <c r="BP5" s="79"/>
+      <c r="BQ5" s="79"/>
+      <c r="BR5" s="79"/>
+      <c r="BS5" s="79"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="79"/>
+      <c r="CD5" s="79"/>
+      <c r="CE5" s="79"/>
+      <c r="CF5" s="79"/>
+      <c r="CG5" s="79"/>
+      <c r="CH5" s="79"/>
+      <c r="CI5" s="79"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5960,197 +5954,197 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="29" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="29" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="32" t="s">
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="32"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="32"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="32"/>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="32"/>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="32"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="31"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="31"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="33">
+      <c r="B8" s="58">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="46" t="s">
-        <v>46</v>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
+        <v>44</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="37" t="s">
-        <v>40</v>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="62" t="s">
+        <v>38</v>
       </c>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-      <c r="BJ8" s="37"/>
-      <c r="BK8" s="37"/>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="37"/>
-      <c r="BN8" s="37"/>
-      <c r="BO8" s="37"/>
-      <c r="BP8" s="37"/>
-      <c r="BQ8" s="37"/>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="37"/>
-      <c r="BT8" s="37"/>
-      <c r="BU8" s="37"/>
-      <c r="BV8" s="37"/>
-      <c r="BW8" s="37"/>
-      <c r="BX8" s="37"/>
-      <c r="BY8" s="37"/>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37"/>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="62"/>
+      <c r="BN8" s="62"/>
+      <c r="BO8" s="62"/>
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="62"/>
+      <c r="BR8" s="62"/>
+      <c r="BS8" s="62"/>
+      <c r="BT8" s="62"/>
+      <c r="BU8" s="62"/>
+      <c r="BV8" s="62"/>
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="62"/>
+      <c r="BY8" s="62"/>
+      <c r="BZ8" s="62"/>
+      <c r="CA8" s="62"/>
+      <c r="CB8" s="62"/>
+      <c r="CC8" s="62"/>
+      <c r="CD8" s="62"/>
+      <c r="CE8" s="62"/>
+      <c r="CF8" s="62"/>
+      <c r="CG8" s="62"/>
+      <c r="CH8" s="62"/>
+      <c r="CI8" s="62"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -8127,7 +8121,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -10178,65 +10172,65 @@
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="64" t="s">
-        <v>36</v>
+      <c r="G12" s="32" t="s">
+        <v>35</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="43"/>
-      <c r="AY12" s="43"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="43"/>
-      <c r="BC12" s="43"/>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="43"/>
-      <c r="BG12" s="43"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="43"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="44"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="34"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
@@ -11206,65 +11200,65 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="65" t="s">
-        <v>37</v>
+      <c r="G13" s="35" t="s">
+        <v>36</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="66"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="66"/>
-      <c r="BF13" s="66"/>
-      <c r="BG13" s="66"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="66"/>
-      <c r="BJ13" s="66"/>
-      <c r="BK13" s="67"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="37"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
       <c r="BN13" s="11"/>
@@ -12234,63 +12228,63 @@
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="69"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="69"/>
-      <c r="BF14" s="69"/>
-      <c r="BG14" s="69"/>
-      <c r="BH14" s="69"/>
-      <c r="BI14" s="69"/>
-      <c r="BJ14" s="69"/>
-      <c r="BK14" s="70"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="40"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
       <c r="BN14" s="11"/>
@@ -13260,63 +13254,63 @@
       <c r="D15" s="11"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="72"/>
-      <c r="BD15" s="72"/>
-      <c r="BE15" s="72"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="72"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="72"/>
-      <c r="BJ15" s="72"/>
-      <c r="BK15" s="73"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="43"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="11"/>
       <c r="BN15" s="11"/>
@@ -15317,7 +15311,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="1"/>
       <c r="I17" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -19417,198 +19411,198 @@
       <c r="B21" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="75"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="81"/>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="29" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="29" t="s">
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="74" t="s">
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AT21" s="75"/>
-      <c r="AU21" s="75"/>
-      <c r="AV21" s="75"/>
-      <c r="AW21" s="75"/>
-      <c r="AX21" s="75"/>
-      <c r="AY21" s="75"/>
-      <c r="AZ21" s="75"/>
-      <c r="BA21" s="75"/>
-      <c r="BB21" s="75"/>
-      <c r="BC21" s="75"/>
-      <c r="BD21" s="75"/>
-      <c r="BE21" s="75"/>
-      <c r="BF21" s="75"/>
-      <c r="BG21" s="75"/>
-      <c r="BH21" s="75"/>
-      <c r="BI21" s="75"/>
-      <c r="BJ21" s="75"/>
-      <c r="BK21" s="75"/>
-      <c r="BL21" s="75"/>
-      <c r="BM21" s="75"/>
-      <c r="BN21" s="75"/>
-      <c r="BO21" s="75"/>
-      <c r="BP21" s="75"/>
-      <c r="BQ21" s="75"/>
-      <c r="BR21" s="75"/>
-      <c r="BS21" s="75"/>
-      <c r="BT21" s="75"/>
-      <c r="BU21" s="75"/>
-      <c r="BV21" s="75"/>
-      <c r="BW21" s="75"/>
-      <c r="BX21" s="75"/>
-      <c r="BY21" s="75"/>
-      <c r="BZ21" s="75"/>
-      <c r="CA21" s="75"/>
-      <c r="CB21" s="75"/>
-      <c r="CC21" s="75"/>
-      <c r="CD21" s="75"/>
-      <c r="CE21" s="75"/>
-      <c r="CF21" s="75"/>
-      <c r="CG21" s="75"/>
-      <c r="CH21" s="75"/>
-      <c r="CI21" s="76"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="69"/>
+      <c r="BF21" s="69"/>
+      <c r="BG21" s="69"/>
+      <c r="BH21" s="69"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="69"/>
+      <c r="BK21" s="69"/>
+      <c r="BL21" s="69"/>
+      <c r="BM21" s="69"/>
+      <c r="BN21" s="69"/>
+      <c r="BO21" s="69"/>
+      <c r="BP21" s="69"/>
+      <c r="BQ21" s="69"/>
+      <c r="BR21" s="69"/>
+      <c r="BS21" s="69"/>
+      <c r="BT21" s="69"/>
+      <c r="BU21" s="69"/>
+      <c r="BV21" s="69"/>
+      <c r="BW21" s="69"/>
+      <c r="BX21" s="69"/>
+      <c r="BY21" s="69"/>
+      <c r="BZ21" s="69"/>
+      <c r="CA21" s="69"/>
+      <c r="CB21" s="69"/>
+      <c r="CC21" s="69"/>
+      <c r="CD21" s="69"/>
+      <c r="CE21" s="69"/>
+      <c r="CF21" s="69"/>
+      <c r="CG21" s="69"/>
+      <c r="CH21" s="69"/>
+      <c r="CI21" s="70"/>
     </row>
     <row r="22" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="86">
+      <c r="B22" s="85">
         <v>2</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="46" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="83" t="s">
-        <v>34</v>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="88" t="s">
+        <v>33</v>
       </c>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="46" t="s">
-        <v>43</v>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="59" t="s">
+        <v>41</v>
       </c>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="47"/>
-      <c r="AZ22" s="47"/>
-      <c r="BA22" s="47"/>
-      <c r="BB22" s="47"/>
-      <c r="BC22" s="47"/>
-      <c r="BD22" s="47"/>
-      <c r="BE22" s="47"/>
-      <c r="BF22" s="47"/>
-      <c r="BG22" s="47"/>
-      <c r="BH22" s="47"/>
-      <c r="BI22" s="47"/>
-      <c r="BJ22" s="47"/>
-      <c r="BK22" s="47"/>
-      <c r="BL22" s="47"/>
-      <c r="BM22" s="47"/>
-      <c r="BN22" s="47"/>
-      <c r="BO22" s="47"/>
-      <c r="BP22" s="47"/>
-      <c r="BQ22" s="47"/>
-      <c r="BR22" s="47"/>
-      <c r="BS22" s="47"/>
-      <c r="BT22" s="47"/>
-      <c r="BU22" s="47"/>
-      <c r="BV22" s="47"/>
-      <c r="BW22" s="47"/>
-      <c r="BX22" s="47"/>
-      <c r="BY22" s="47"/>
-      <c r="BZ22" s="47"/>
-      <c r="CA22" s="47"/>
-      <c r="CB22" s="47"/>
-      <c r="CC22" s="47"/>
-      <c r="CD22" s="47"/>
-      <c r="CE22" s="47"/>
-      <c r="CF22" s="47"/>
-      <c r="CG22" s="47"/>
-      <c r="CH22" s="47"/>
-      <c r="CI22" s="82"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="60"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+      <c r="BB22" s="60"/>
+      <c r="BC22" s="60"/>
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="60"/>
+      <c r="BF22" s="60"/>
+      <c r="BG22" s="60"/>
+      <c r="BH22" s="60"/>
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="60"/>
+      <c r="BK22" s="60"/>
+      <c r="BL22" s="60"/>
+      <c r="BM22" s="60"/>
+      <c r="BN22" s="60"/>
+      <c r="BO22" s="60"/>
+      <c r="BP22" s="60"/>
+      <c r="BQ22" s="60"/>
+      <c r="BR22" s="60"/>
+      <c r="BS22" s="60"/>
+      <c r="BT22" s="60"/>
+      <c r="BU22" s="60"/>
+      <c r="BV22" s="60"/>
+      <c r="BW22" s="60"/>
+      <c r="BX22" s="60"/>
+      <c r="BY22" s="60"/>
+      <c r="BZ22" s="60"/>
+      <c r="CA22" s="60"/>
+      <c r="CB22" s="60"/>
+      <c r="CC22" s="60"/>
+      <c r="CD22" s="60"/>
+      <c r="CE22" s="60"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="60"/>
+      <c r="CH22" s="60"/>
+      <c r="CI22" s="71"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
       <c r="CL22" s="1"/>
@@ -21585,7 +21579,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="1"/>
       <c r="I24" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -23641,7 +23635,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -25691,13 +25685,13 @@
       <c r="C28" s="11"/>
       <c r="D28" s="22"/>
       <c r="E28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="1"/>
       <c r="I28" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -29797,198 +29791,198 @@
       <c r="B32" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="81"/>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="29" t="s">
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="29" t="s">
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="74" t="s">
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AT32" s="75"/>
-      <c r="AU32" s="75"/>
-      <c r="AV32" s="75"/>
-      <c r="AW32" s="75"/>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75"/>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="75"/>
-      <c r="BE32" s="75"/>
-      <c r="BF32" s="75"/>
-      <c r="BG32" s="75"/>
-      <c r="BH32" s="75"/>
-      <c r="BI32" s="75"/>
-      <c r="BJ32" s="75"/>
-      <c r="BK32" s="75"/>
-      <c r="BL32" s="75"/>
-      <c r="BM32" s="75"/>
-      <c r="BN32" s="75"/>
-      <c r="BO32" s="75"/>
-      <c r="BP32" s="75"/>
-      <c r="BQ32" s="75"/>
-      <c r="BR32" s="75"/>
-      <c r="BS32" s="75"/>
-      <c r="BT32" s="75"/>
-      <c r="BU32" s="75"/>
-      <c r="BV32" s="75"/>
-      <c r="BW32" s="75"/>
-      <c r="BX32" s="75"/>
-      <c r="BY32" s="75"/>
-      <c r="BZ32" s="75"/>
-      <c r="CA32" s="75"/>
-      <c r="CB32" s="75"/>
-      <c r="CC32" s="75"/>
-      <c r="CD32" s="75"/>
-      <c r="CE32" s="75"/>
-      <c r="CF32" s="75"/>
-      <c r="CG32" s="75"/>
-      <c r="CH32" s="75"/>
-      <c r="CI32" s="76"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="69"/>
+      <c r="AZ32" s="69"/>
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
+      <c r="BC32" s="69"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="69"/>
+      <c r="BF32" s="69"/>
+      <c r="BG32" s="69"/>
+      <c r="BH32" s="69"/>
+      <c r="BI32" s="69"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="69"/>
+      <c r="BL32" s="69"/>
+      <c r="BM32" s="69"/>
+      <c r="BN32" s="69"/>
+      <c r="BO32" s="69"/>
+      <c r="BP32" s="69"/>
+      <c r="BQ32" s="69"/>
+      <c r="BR32" s="69"/>
+      <c r="BS32" s="69"/>
+      <c r="BT32" s="69"/>
+      <c r="BU32" s="69"/>
+      <c r="BV32" s="69"/>
+      <c r="BW32" s="69"/>
+      <c r="BX32" s="69"/>
+      <c r="BY32" s="69"/>
+      <c r="BZ32" s="69"/>
+      <c r="CA32" s="69"/>
+      <c r="CB32" s="69"/>
+      <c r="CC32" s="69"/>
+      <c r="CD32" s="69"/>
+      <c r="CE32" s="69"/>
+      <c r="CF32" s="69"/>
+      <c r="CG32" s="69"/>
+      <c r="CH32" s="69"/>
+      <c r="CI32" s="70"/>
     </row>
     <row r="33" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="86">
-        <v>2</v>
+      <c r="B33" s="85">
+        <v>3</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="46" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="46" t="s">
-        <v>28</v>
+      <c r="AJ33" s="89"/>
+      <c r="AK33" s="89"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="89"/>
+      <c r="AO33" s="89"/>
+      <c r="AP33" s="89"/>
+      <c r="AQ33" s="89"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="59" t="s">
+        <v>49</v>
       </c>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ33" s="84"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="84"/>
-      <c r="AO33" s="84"/>
-      <c r="AP33" s="84"/>
-      <c r="AQ33" s="84"/>
-      <c r="AR33" s="85"/>
-      <c r="AS33" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT33" s="47"/>
-      <c r="AU33" s="47"/>
-      <c r="AV33" s="47"/>
-      <c r="AW33" s="47"/>
-      <c r="AX33" s="47"/>
-      <c r="AY33" s="47"/>
-      <c r="AZ33" s="47"/>
-      <c r="BA33" s="47"/>
-      <c r="BB33" s="47"/>
-      <c r="BC33" s="47"/>
-      <c r="BD33" s="47"/>
-      <c r="BE33" s="47"/>
-      <c r="BF33" s="47"/>
-      <c r="BG33" s="47"/>
-      <c r="BH33" s="47"/>
-      <c r="BI33" s="47"/>
-      <c r="BJ33" s="47"/>
-      <c r="BK33" s="47"/>
-      <c r="BL33" s="47"/>
-      <c r="BM33" s="47"/>
-      <c r="BN33" s="47"/>
-      <c r="BO33" s="47"/>
-      <c r="BP33" s="47"/>
-      <c r="BQ33" s="47"/>
-      <c r="BR33" s="47"/>
-      <c r="BS33" s="47"/>
-      <c r="BT33" s="47"/>
-      <c r="BU33" s="47"/>
-      <c r="BV33" s="47"/>
-      <c r="BW33" s="47"/>
-      <c r="BX33" s="47"/>
-      <c r="BY33" s="47"/>
-      <c r="BZ33" s="47"/>
-      <c r="CA33" s="47"/>
-      <c r="CB33" s="47"/>
-      <c r="CC33" s="47"/>
-      <c r="CD33" s="47"/>
-      <c r="CE33" s="47"/>
-      <c r="CF33" s="47"/>
-      <c r="CG33" s="47"/>
-      <c r="CH33" s="47"/>
-      <c r="CI33" s="82"/>
+      <c r="AT33" s="60"/>
+      <c r="AU33" s="60"/>
+      <c r="AV33" s="60"/>
+      <c r="AW33" s="60"/>
+      <c r="AX33" s="60"/>
+      <c r="AY33" s="60"/>
+      <c r="AZ33" s="60"/>
+      <c r="BA33" s="60"/>
+      <c r="BB33" s="60"/>
+      <c r="BC33" s="60"/>
+      <c r="BD33" s="60"/>
+      <c r="BE33" s="60"/>
+      <c r="BF33" s="60"/>
+      <c r="BG33" s="60"/>
+      <c r="BH33" s="60"/>
+      <c r="BI33" s="60"/>
+      <c r="BJ33" s="60"/>
+      <c r="BK33" s="60"/>
+      <c r="BL33" s="60"/>
+      <c r="BM33" s="60"/>
+      <c r="BN33" s="60"/>
+      <c r="BO33" s="60"/>
+      <c r="BP33" s="60"/>
+      <c r="BQ33" s="60"/>
+      <c r="BR33" s="60"/>
+      <c r="BS33" s="60"/>
+      <c r="BT33" s="60"/>
+      <c r="BU33" s="60"/>
+      <c r="BV33" s="60"/>
+      <c r="BW33" s="60"/>
+      <c r="BX33" s="60"/>
+      <c r="BY33" s="60"/>
+      <c r="BZ33" s="60"/>
+      <c r="CA33" s="60"/>
+      <c r="CB33" s="60"/>
+      <c r="CC33" s="60"/>
+      <c r="CD33" s="60"/>
+      <c r="CE33" s="60"/>
+      <c r="CF33" s="60"/>
+      <c r="CG33" s="60"/>
+      <c r="CH33" s="60"/>
+      <c r="CI33" s="71"/>
       <c r="CJ33" s="1"/>
       <c r="CK33" s="1"/>
       <c r="CL33" s="1"/>
@@ -31965,7 +31959,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="1"/>
       <c r="I35" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -34016,69 +34010,69 @@
       <c r="D37" s="22"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="41" t="s">
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="64" t="s">
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="89"/>
-      <c r="AJ37" s="89"/>
-      <c r="AK37" s="89"/>
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="89"/>
-      <c r="AN37" s="89"/>
-      <c r="AO37" s="89"/>
-      <c r="AP37" s="89"/>
-      <c r="AQ37" s="89"/>
-      <c r="AR37" s="89"/>
-      <c r="AS37" s="89"/>
-      <c r="AT37" s="89"/>
-      <c r="AU37" s="89"/>
-      <c r="AV37" s="89"/>
-      <c r="AW37" s="89"/>
-      <c r="AX37" s="89"/>
-      <c r="AY37" s="89"/>
-      <c r="AZ37" s="89"/>
-      <c r="BA37" s="89"/>
-      <c r="BB37" s="89"/>
-      <c r="BC37" s="89"/>
-      <c r="BD37" s="89"/>
-      <c r="BE37" s="89"/>
-      <c r="BF37" s="89"/>
-      <c r="BG37" s="89"/>
-      <c r="BH37" s="89"/>
-      <c r="BI37" s="89"/>
-      <c r="BJ37" s="89"/>
-      <c r="BK37" s="90"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="72"/>
+      <c r="AM37" s="72"/>
+      <c r="AN37" s="72"/>
+      <c r="AO37" s="72"/>
+      <c r="AP37" s="72"/>
+      <c r="AQ37" s="72"/>
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="72"/>
+      <c r="AT37" s="72"/>
+      <c r="AU37" s="72"/>
+      <c r="AV37" s="72"/>
+      <c r="AW37" s="72"/>
+      <c r="AX37" s="72"/>
+      <c r="AY37" s="72"/>
+      <c r="AZ37" s="72"/>
+      <c r="BA37" s="72"/>
+      <c r="BB37" s="72"/>
+      <c r="BC37" s="72"/>
+      <c r="BD37" s="72"/>
+      <c r="BE37" s="72"/>
+      <c r="BF37" s="72"/>
+      <c r="BG37" s="72"/>
+      <c r="BH37" s="72"/>
+      <c r="BI37" s="72"/>
+      <c r="BJ37" s="72"/>
+      <c r="BK37" s="73"/>
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
       <c r="BN37" s="22"/>
@@ -35048,69 +35042,69 @@
       <c r="D38" s="22"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="34">
+      <c r="G38" s="27">
         <v>1</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="34" t="s">
-        <v>38</v>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="27" t="s">
+        <v>37</v>
       </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="34" t="s">
-        <v>39</v>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="27" t="s">
+        <v>48</v>
       </c>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="35"/>
-      <c r="BC38" s="35"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35"/>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35"/>
-      <c r="BK38" s="36"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="28"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="28"/>
+      <c r="AX38" s="28"/>
+      <c r="AY38" s="28"/>
+      <c r="AZ38" s="28"/>
+      <c r="BA38" s="28"/>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="28"/>
+      <c r="BD38" s="28"/>
+      <c r="BE38" s="28"/>
+      <c r="BF38" s="28"/>
+      <c r="BG38" s="28"/>
+      <c r="BH38" s="28"/>
+      <c r="BI38" s="28"/>
+      <c r="BJ38" s="28"/>
+      <c r="BK38" s="29"/>
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
       <c r="BN38" s="22"/>
@@ -37111,7 +37105,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="1"/>
       <c r="I40" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -41209,13 +41203,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:X38"/>
-    <mergeCell ref="Y38:BK38"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="G12:BK12"/>
-    <mergeCell ref="G13:BK15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AH21"/>
+    <mergeCell ref="AI21:AR21"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AH22"/>
+    <mergeCell ref="AI22:AR22"/>
+    <mergeCell ref="AS22:CI22"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:X32"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="AI33:AR33"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -41230,14 +41248,13 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:X38"/>
+    <mergeCell ref="Y38:BK38"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="G12:BK12"/>
+    <mergeCell ref="G13:BK15"/>
     <mergeCell ref="AS32:CI32"/>
     <mergeCell ref="E33:X33"/>
     <mergeCell ref="AS33:CI33"/>
@@ -41246,29 +41263,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:X37"/>
     <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:X32"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="AI33:AR33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AH22"/>
-    <mergeCell ref="AI22:AR22"/>
-    <mergeCell ref="AS22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AH21"/>
-    <mergeCell ref="AI21:AR21"/>
-    <mergeCell ref="AS21:CI21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
